--- a/TU9精英.xlsx
+++ b/TU9精英.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeziyang/Desktop/uniSearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{921A061C-8D33-5A47-9E14-3CECEADDC371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE6A685-8A58-234C-95C8-0963F4FFD384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{8E51C885-C217-A043-8561-51A5F8F2D96C}"/>
+    <workbookView xWindow="12420" yWindow="520" windowWidth="25600" windowHeight="14420" xr2:uid="{8E51C885-C217-A043-8561-51A5F8F2D96C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>TU9</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,130 @@
   </si>
   <si>
     <t>WIF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在联邦州</t>
+  </si>
+  <si>
+    <t>成立时间</t>
+  </si>
+  <si>
+    <t>亚琛工业大学</t>
+  </si>
+  <si>
+    <t>北莱茵威斯特法伦州</t>
+  </si>
+  <si>
+    <t>慕尼黑工业大学</t>
+  </si>
+  <si>
+    <t>巴伐利亚州</t>
+  </si>
+  <si>
+    <t>德累斯顿工业大学</t>
+  </si>
+  <si>
+    <t>萨克森州</t>
+  </si>
+  <si>
+    <t>柏林工业大学</t>
+  </si>
+  <si>
+    <t>柏林州</t>
+  </si>
+  <si>
+    <t>布伦瑞克工业大学</t>
+  </si>
+  <si>
+    <t>下萨克森州</t>
+  </si>
+  <si>
+    <t>卡尔斯鲁厄理工学院</t>
+  </si>
+  <si>
+    <t>巴登符腾堡州</t>
+  </si>
+  <si>
+    <t>斯图加特大学</t>
+  </si>
+  <si>
+    <t>汉诺威大学</t>
+  </si>
+  <si>
+    <t>黑森州</t>
+  </si>
+  <si>
+    <r>
+      <t>成员高校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慕尼黑大学</t>
+  </si>
+  <si>
+    <t>海德堡大学</t>
+  </si>
+  <si>
+    <t>图宾根大学</t>
+  </si>
+  <si>
+    <t>康斯坦茨大学</t>
+  </si>
+  <si>
+    <t>波恩大学</t>
+  </si>
+  <si>
+    <t>汉堡大学</t>
+  </si>
+  <si>
+    <t>柏林洪堡大学</t>
+  </si>
+  <si>
+    <t>柏林自由大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴登-符腾堡州</t>
+  </si>
+  <si>
+    <t>北莱茵-威斯特法伦州</t>
+  </si>
+  <si>
+    <t>汉堡市</t>
+  </si>
+  <si>
+    <t>651-700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>551-560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济周刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达姆施塔特工业大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,16 +202,65 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3366CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -95,17 +268,169 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,34 +747,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F565A13C-A290-D541-899B-9FC0D2B39DEC}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1870</v>
+      </c>
+      <c r="D3" s="19">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1868</v>
+      </c>
+      <c r="D4" s="19">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1828</v>
+      </c>
+      <c r="D5" s="19">
+        <v>173</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1770</v>
+      </c>
+      <c r="D6" s="19">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1745</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1825</v>
+      </c>
+      <c r="D8" s="19">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1829</v>
+      </c>
+      <c r="D9" s="1">
+        <v>333</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1831</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1877</v>
+      </c>
+      <c r="D11" s="19">
+        <v>267</v>
+      </c>
+      <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="F11" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1472</v>
+      </c>
+      <c r="D14" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1386</v>
+      </c>
+      <c r="D15" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1477</v>
+      </c>
+      <c r="D16" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1966</v>
+      </c>
+      <c r="D17" s="1">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1828</v>
+      </c>
+      <c r="D18" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1919</v>
+      </c>
+      <c r="D19" s="19">
+        <v>228</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1948</v>
+      </c>
+      <c r="D20" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="17">
+        <v>1810</v>
+      </c>
+      <c r="D21" s="1">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TU9精英.xlsx
+++ b/TU9精英.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeziyang/Desktop/uniSearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE6A685-8A58-234C-95C8-0963F4FFD384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B535C86-0606-C843-B9F6-A8AE05E9F2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="520" windowWidth="25600" windowHeight="14420" xr2:uid="{8E51C885-C217-A043-8561-51A5F8F2D96C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{8E51C885-C217-A043-8561-51A5F8F2D96C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>成立时间</t>
   </si>
   <si>
-    <t>亚琛工业大学</t>
-  </si>
-  <si>
     <t>北莱茵威斯特法伦州</t>
   </si>
   <si>
@@ -174,12 +171,16 @@
     <t>达姆施塔特工业大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>亚琛工业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,6 +233,14 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -354,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,6 +424,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -424,13 +442,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -750,7 +762,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -762,22 +774,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -786,18 +798,18 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="10">
         <v>1870</v>
@@ -808,10 +820,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="10">
         <v>1868</v>
@@ -828,10 +840,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="10">
         <v>1828</v>
@@ -848,10 +860,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="10">
         <v>1770</v>
@@ -862,24 +874,24 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>15</v>
       </c>
       <c r="C7" s="10">
         <v>1745</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>17</v>
       </c>
       <c r="C8" s="10">
         <v>1825</v>
@@ -890,10 +902,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="23" t="s">
         <v>17</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="10">
         <v>1829</v>
@@ -910,24 +922,24 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="10">
         <v>1831</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="10">
         <v>1877</v>
@@ -943,16 +955,16 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
@@ -963,10 +975,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="14">
         <v>1472</v>
@@ -977,10 +989,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="14">
         <v>1386</v>
@@ -991,10 +1003,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="14">
         <v>1477</v>
@@ -1005,10 +1017,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="14">
         <v>1966</v>
@@ -1019,10 +1031,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="15">
         <v>1828</v>
@@ -1033,10 +1045,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="14">
         <v>1919</v>
@@ -1048,15 +1060,15 @@
         <v>7</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="14">
         <v>1948</v>
@@ -1067,10 +1079,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="17">
         <v>1810</v>

--- a/TU9精英.xlsx
+++ b/TU9精英.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeziyang/Desktop/uniSearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B535C86-0606-C843-B9F6-A8AE05E9F2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A40F0D-9795-2B47-A900-E7548BE57E15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{8E51C885-C217-A043-8561-51A5F8F2D96C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>TU9</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>萨克森州</t>
-  </si>
-  <si>
-    <t>柏林工业大学</t>
   </si>
   <si>
     <t>柏林州</t>
@@ -173,6 +170,14 @@
   </si>
   <si>
     <t>亚琛工业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏林工业大学E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼海姆E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,6 +438,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,9 +449,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F565A13C-A290-D541-899B-9FC0D2B39DEC}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -774,22 +779,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -798,15 +803,15 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="26" t="s">
-        <v>38</v>
+      <c r="A3" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>6</v>
@@ -860,10 +865,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="C6" s="10">
         <v>1770</v>
@@ -874,24 +879,24 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>14</v>
       </c>
       <c r="C7" s="10">
         <v>1745</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="10">
         <v>1825</v>
@@ -902,10 +907,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10">
         <v>1829</v>
@@ -922,24 +927,24 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="10">
         <v>1831</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="10">
         <v>1877</v>
@@ -955,16 +960,16 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
@@ -975,7 +980,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
@@ -989,10 +994,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="14">
         <v>1386</v>
@@ -1003,10 +1008,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="14">
         <v>1477</v>
@@ -1017,10 +1022,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="14">
         <v>1966</v>
@@ -1031,10 +1036,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="15">
         <v>1828</v>
@@ -1045,10 +1050,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="14">
         <v>1919</v>
@@ -1060,15 +1065,15 @@
         <v>7</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="14">
         <v>1948</v>
@@ -1079,16 +1084,33 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="17">
         <v>1810</v>
       </c>
       <c r="D21" s="1">
         <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1967</v>
+      </c>
+      <c r="D22" s="1">
+        <v>307</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
